--- a/Allfiles/Visits.xlsx
+++ b/Allfiles/Visits.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7144f5a0ac402b53/Desktop/PL-900 FY23/2023 Content/ILT Labs/Lab Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-selliott\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{1DEDB6DC-CED5-4D55-89A9-69B9A2CC3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD8553D-F9DE-407D-97B6-EA14B19DE48A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F20566-89A7-4135-9E9A-B822958AA630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F607E258-516E-4467-81D6-58395A75199E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F607E258-516E-4467-81D6-58395A75199E}"/>
   </bookViews>
   <sheets>
     <sheet name="Visits" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="933">
   <si>
     <t>actual end</t>
   </si>
@@ -2891,9 +2890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2931,7 +2930,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3037,7 +3036,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3179,7 +3178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3189,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29273708-89A7-487D-AFD2-7CDEAAB95C23}">
   <dimension ref="A1:G646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213:F216"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18059,5002 +18058,6 @@
       <c r="G646" t="s">
         <v>7</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9237B7C0-76F3-477E-93E6-A4481C34EAE9}">
-  <dimension ref="A1:G218"/>
-  <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G216"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45240.395833333336</v>
-      </c>
-      <c r="C2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45240.395833333336</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45240.625</v>
-      </c>
-      <c r="C3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45240.625</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="C4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45272.583333333336</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45272.5625</v>
-      </c>
-      <c r="C6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45272.583333333336</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45272.5625</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45242.729166666664</v>
-      </c>
-      <c r="C7" t="s">
-        <v>705</v>
-      </c>
-      <c r="D7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45242.729166666664</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="C8" t="s">
-        <v>707</v>
-      </c>
-      <c r="D8" t="s">
-        <v>712</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45240.395833333336</v>
-      </c>
-      <c r="C9" t="s">
-        <v>709</v>
-      </c>
-      <c r="D9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45240.395833333336</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="C10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D10" t="s">
-        <v>713</v>
-      </c>
-      <c r="E10" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="C11" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" t="s">
-        <v>714</v>
-      </c>
-      <c r="E11" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45229.75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45229.625</v>
-      </c>
-      <c r="C12" t="s">
-        <v>715</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>45229.75</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45229.625</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45242.604166666664</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45242.5625</v>
-      </c>
-      <c r="C13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D13" t="s">
-        <v>716</v>
-      </c>
-      <c r="E13" s="1">
-        <v>45242.604166666664</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45242.5625</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45271.479166666664</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="C14" t="s">
-        <v>717</v>
-      </c>
-      <c r="D14" t="s">
-        <v>718</v>
-      </c>
-      <c r="E14" s="1">
-        <v>45271.479166666664</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45240.8125</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>719</v>
-      </c>
-      <c r="D15" t="s">
-        <v>679</v>
-      </c>
-      <c r="E15" s="1">
-        <v>45240.8125</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45240.479166666664</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45240.458333333336</v>
-      </c>
-      <c r="C16" t="s">
-        <v>720</v>
-      </c>
-      <c r="D16" t="s">
-        <v>680</v>
-      </c>
-      <c r="E16" s="1">
-        <v>45240.479166666664</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45240.458333333336</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45211.375</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45211.333333333336</v>
-      </c>
-      <c r="C17" t="s">
-        <v>721</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="1">
-        <v>45211.375</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45211.333333333336</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45240.5625</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45240.541666666664</v>
-      </c>
-      <c r="C18" t="s">
-        <v>722</v>
-      </c>
-      <c r="D18" t="s">
-        <v>681</v>
-      </c>
-      <c r="E18" s="1">
-        <v>45240.5625</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45240.541666666664</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45242.708333333336</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="C19" t="s">
-        <v>723</v>
-      </c>
-      <c r="D19" t="s">
-        <v>724</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45242.708333333336</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="C20" t="s">
-        <v>725</v>
-      </c>
-      <c r="D20" t="s">
-        <v>726</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45242.4375</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45242.416666666664</v>
-      </c>
-      <c r="C21" t="s">
-        <v>727</v>
-      </c>
-      <c r="D21" t="s">
-        <v>728</v>
-      </c>
-      <c r="E21" s="1">
-        <v>45242.4375</v>
-      </c>
-      <c r="F21" s="1">
-        <v>45242.416666666664</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45240.354166666664</v>
-      </c>
-      <c r="C22" t="s">
-        <v>725</v>
-      </c>
-      <c r="D22" t="s">
-        <v>682</v>
-      </c>
-      <c r="E22" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45240.354166666664</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45240.729166666664</v>
-      </c>
-      <c r="C23" t="s">
-        <v>729</v>
-      </c>
-      <c r="D23" t="s">
-        <v>683</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45240.729166666664</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45232.458333333336</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45232.4375</v>
-      </c>
-      <c r="C24" t="s">
-        <v>730</v>
-      </c>
-      <c r="D24" t="s">
-        <v>684</v>
-      </c>
-      <c r="E24" s="1">
-        <v>45232.458333333336</v>
-      </c>
-      <c r="F24" s="1">
-        <v>45232.4375</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45242.75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>731</v>
-      </c>
-      <c r="D25" t="s">
-        <v>732</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="F25" s="1">
-        <v>45242.75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45282.770833333336</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45282.75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>733</v>
-      </c>
-      <c r="D26" t="s">
-        <v>734</v>
-      </c>
-      <c r="E26" s="1">
-        <v>45282.770833333336</v>
-      </c>
-      <c r="F26" s="1">
-        <v>45282.75</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45240.520833333336</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45240.458333333336</v>
-      </c>
-      <c r="C27" t="s">
-        <v>735</v>
-      </c>
-      <c r="D27" t="s">
-        <v>685</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45240.520833333336</v>
-      </c>
-      <c r="F27" s="1">
-        <v>45240.458333333336</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45240.479166666664</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="C28" t="s">
-        <v>736</v>
-      </c>
-      <c r="D28" t="s">
-        <v>686</v>
-      </c>
-      <c r="E28" s="1">
-        <v>45240.479166666664</v>
-      </c>
-      <c r="F28" s="1">
-        <v>45240.416666666664</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45240.5</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45240.458333333336</v>
-      </c>
-      <c r="C29" t="s">
-        <v>737</v>
-      </c>
-      <c r="D29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E29" s="1">
-        <v>45240.5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>45240.458333333336</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="C30" t="s">
-        <v>738</v>
-      </c>
-      <c r="D30" t="s">
-        <v>739</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="F30" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="C31" t="s">
-        <v>740</v>
-      </c>
-      <c r="D31" t="s">
-        <v>741</v>
-      </c>
-      <c r="E31" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="F31" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>45232.770833333336</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45232.75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>738</v>
-      </c>
-      <c r="D32" t="s">
-        <v>688</v>
-      </c>
-      <c r="E32" s="1">
-        <v>45232.770833333336</v>
-      </c>
-      <c r="F32" s="1">
-        <v>45232.75</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>45242.645833333336</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45242.625</v>
-      </c>
-      <c r="C33" t="s">
-        <v>742</v>
-      </c>
-      <c r="D33" t="s">
-        <v>743</v>
-      </c>
-      <c r="E33" s="1">
-        <v>45242.645833333336</v>
-      </c>
-      <c r="F33" s="1">
-        <v>45242.625</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>45232.75</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45232.625</v>
-      </c>
-      <c r="C34" t="s">
-        <v>744</v>
-      </c>
-      <c r="D34" t="s">
-        <v>689</v>
-      </c>
-      <c r="E34" s="1">
-        <v>45232.75</v>
-      </c>
-      <c r="F34" s="1">
-        <v>45232.625</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>45240.4375</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45240.395833333336</v>
-      </c>
-      <c r="C35" t="s">
-        <v>745</v>
-      </c>
-      <c r="D35" t="s">
-        <v>690</v>
-      </c>
-      <c r="E35" s="1">
-        <v>45240.4375</v>
-      </c>
-      <c r="F35" s="1">
-        <v>45240.395833333336</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45271.583333333336</v>
-      </c>
-      <c r="C36" t="s">
-        <v>746</v>
-      </c>
-      <c r="D36" t="s">
-        <v>747</v>
-      </c>
-      <c r="E36" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="F36" s="1">
-        <v>45271.583333333336</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>45240.583333333336</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45240.520833333336</v>
-      </c>
-      <c r="C37" t="s">
-        <v>748</v>
-      </c>
-      <c r="D37" t="s">
-        <v>691</v>
-      </c>
-      <c r="E37" s="1">
-        <v>45240.583333333336</v>
-      </c>
-      <c r="F37" s="1">
-        <v>45240.520833333336</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>45240.520833333336</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45240.479166666664</v>
-      </c>
-      <c r="C38" t="s">
-        <v>749</v>
-      </c>
-      <c r="D38" t="s">
-        <v>692</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45240.520833333336</v>
-      </c>
-      <c r="F38" s="1">
-        <v>45240.479166666664</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>45240.770833333336</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45240.708333333336</v>
-      </c>
-      <c r="C39" t="s">
-        <v>750</v>
-      </c>
-      <c r="D39" t="s">
-        <v>693</v>
-      </c>
-      <c r="E39" s="1">
-        <v>45240.770833333336</v>
-      </c>
-      <c r="F39" s="1">
-        <v>45240.708333333336</v>
-      </c>
-      <c r="G39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>45281.75</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45281.604166666664</v>
-      </c>
-      <c r="C40" t="s">
-        <v>751</v>
-      </c>
-      <c r="D40" t="s">
-        <v>752</v>
-      </c>
-      <c r="E40" s="1">
-        <v>45281.75</v>
-      </c>
-      <c r="F40" s="1">
-        <v>45281.604166666664</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45272.541666666664</v>
-      </c>
-      <c r="C41" t="s">
-        <v>753</v>
-      </c>
-      <c r="D41" t="s">
-        <v>754</v>
-      </c>
-      <c r="E41" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="F41" s="1">
-        <v>45272.541666666664</v>
-      </c>
-      <c r="G41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="C42" t="s">
-        <v>753</v>
-      </c>
-      <c r="D42" t="s">
-        <v>755</v>
-      </c>
-      <c r="E42" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="F42" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>45242.541666666664</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45242.479166666664</v>
-      </c>
-      <c r="C43" t="s">
-        <v>756</v>
-      </c>
-      <c r="D43" t="s">
-        <v>743</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45242.541666666664</v>
-      </c>
-      <c r="F43" s="1">
-        <v>45242.479166666664</v>
-      </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>45240.604166666664</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45240.583333333336</v>
-      </c>
-      <c r="C44" t="s">
-        <v>757</v>
-      </c>
-      <c r="D44" t="s">
-        <v>691</v>
-      </c>
-      <c r="E44" s="1">
-        <v>45240.604166666664</v>
-      </c>
-      <c r="F44" s="1">
-        <v>45240.583333333336</v>
-      </c>
-      <c r="G44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>45242.375</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45242.354166666664</v>
-      </c>
-      <c r="C45" t="s">
-        <v>758</v>
-      </c>
-      <c r="D45" t="s">
-        <v>759</v>
-      </c>
-      <c r="E45" s="1">
-        <v>45242.375</v>
-      </c>
-      <c r="F45" s="1">
-        <v>45242.354166666664</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45240.645833333336</v>
-      </c>
-      <c r="C46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D46" t="s">
-        <v>694</v>
-      </c>
-      <c r="E46" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="F46" s="1">
-        <v>45240.645833333336</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45240.8125</v>
-      </c>
-      <c r="B47" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>761</v>
-      </c>
-      <c r="D47" t="s">
-        <v>695</v>
-      </c>
-      <c r="E47" s="1">
-        <v>45240.8125</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="C48" t="s">
-        <v>762</v>
-      </c>
-      <c r="D48" t="s">
-        <v>763</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="F48" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="B49" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="C49" t="s">
-        <v>764</v>
-      </c>
-      <c r="D49" t="s">
-        <v>765</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="F49" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="G49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>45240.729166666664</v>
-      </c>
-      <c r="B50" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>766</v>
-      </c>
-      <c r="D50" t="s">
-        <v>696</v>
-      </c>
-      <c r="E50" s="1">
-        <v>45240.729166666664</v>
-      </c>
-      <c r="F50" s="1">
-        <v>45240.75</v>
-      </c>
-      <c r="G50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>45232.5</v>
-      </c>
-      <c r="B51" s="1">
-        <v>45232.458333333336</v>
-      </c>
-      <c r="C51" t="s">
-        <v>767</v>
-      </c>
-      <c r="D51" t="s">
-        <v>697</v>
-      </c>
-      <c r="E51" s="1">
-        <v>45232.5</v>
-      </c>
-      <c r="F51" s="1">
-        <v>45232.458333333336</v>
-      </c>
-      <c r="G51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>767</v>
-      </c>
-      <c r="D52" t="s">
-        <v>768</v>
-      </c>
-      <c r="E52" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="F52" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>45281.479166666664</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45281.416666666664</v>
-      </c>
-      <c r="C53" t="s">
-        <v>769</v>
-      </c>
-      <c r="D53" t="s">
-        <v>770</v>
-      </c>
-      <c r="E53" s="1">
-        <v>45281.479166666664</v>
-      </c>
-      <c r="F53" s="1">
-        <v>45281.416666666664</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>45240.604166666664</v>
-      </c>
-      <c r="B54" s="1">
-        <v>45240.583333333336</v>
-      </c>
-      <c r="C54" t="s">
-        <v>771</v>
-      </c>
-      <c r="D54" t="s">
-        <v>698</v>
-      </c>
-      <c r="E54" s="1">
-        <v>45240.604166666664</v>
-      </c>
-      <c r="F54" s="1">
-        <v>45240.583333333336</v>
-      </c>
-      <c r="G54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>45242.75</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="C55" t="s">
-        <v>772</v>
-      </c>
-      <c r="D55" t="s">
-        <v>773</v>
-      </c>
-      <c r="E55" s="1">
-        <v>45242.75</v>
-      </c>
-      <c r="F55" s="1">
-        <v>45242.770833333336</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>45282.708333333336</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45282.645833333336</v>
-      </c>
-      <c r="C56" t="s">
-        <v>774</v>
-      </c>
-      <c r="D56" t="s">
-        <v>775</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45282.708333333336</v>
-      </c>
-      <c r="F56" s="1">
-        <v>45282.645833333336</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>45242.458333333336</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45242.416666666664</v>
-      </c>
-      <c r="C57" t="s">
-        <v>776</v>
-      </c>
-      <c r="D57" t="s">
-        <v>777</v>
-      </c>
-      <c r="E57" s="1">
-        <v>45242.458333333336</v>
-      </c>
-      <c r="F57" s="1">
-        <v>45242.416666666664</v>
-      </c>
-      <c r="G57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>45232.729166666664</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45232.708333333336</v>
-      </c>
-      <c r="C58" t="s">
-        <v>778</v>
-      </c>
-      <c r="D58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E58" s="1">
-        <v>45232.729166666664</v>
-      </c>
-      <c r="F58" s="1">
-        <v>45232.708333333336</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>45271.5</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45271.479166666664</v>
-      </c>
-      <c r="C59" t="s">
-        <v>779</v>
-      </c>
-      <c r="D59" t="s">
-        <v>780</v>
-      </c>
-      <c r="E59" s="1">
-        <v>45271.5</v>
-      </c>
-      <c r="F59" s="1">
-        <v>45271.479166666664</v>
-      </c>
-      <c r="G59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>45232.625</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45232.604166666664</v>
-      </c>
-      <c r="C60" t="s">
-        <v>781</v>
-      </c>
-      <c r="D60" t="s">
-        <v>700</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45232.625</v>
-      </c>
-      <c r="F60" s="1">
-        <v>45232.604166666664</v>
-      </c>
-      <c r="G60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>45232.4375</v>
-      </c>
-      <c r="B61" s="1">
-        <v>45232.416666666664</v>
-      </c>
-      <c r="C61" t="s">
-        <v>781</v>
-      </c>
-      <c r="D61" t="s">
-        <v>701</v>
-      </c>
-      <c r="E61" s="1">
-        <v>45232.4375</v>
-      </c>
-      <c r="F61" s="1">
-        <v>45232.416666666664</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="C62" t="s">
-        <v>782</v>
-      </c>
-      <c r="D62" t="s">
-        <v>783</v>
-      </c>
-      <c r="E62" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="F62" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="G62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>45271.458333333336</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="C63" t="s">
-        <v>784</v>
-      </c>
-      <c r="D63" t="s">
-        <v>785</v>
-      </c>
-      <c r="E63" s="1">
-        <v>45271.458333333336</v>
-      </c>
-      <c r="F63" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="G63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="C64" t="s">
-        <v>786</v>
-      </c>
-      <c r="D64" t="s">
-        <v>714</v>
-      </c>
-      <c r="E64" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="F64" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="G64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>45232.520833333336</v>
-      </c>
-      <c r="B65" s="1">
-        <v>45232.479166666664</v>
-      </c>
-      <c r="C65" t="s">
-        <v>787</v>
-      </c>
-      <c r="D65" t="s">
-        <v>697</v>
-      </c>
-      <c r="E65" s="1">
-        <v>45232.520833333336</v>
-      </c>
-      <c r="F65" s="1">
-        <v>45232.479166666664</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="B66" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>788</v>
-      </c>
-      <c r="D66" t="s">
-        <v>789</v>
-      </c>
-      <c r="E66" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="F66" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="G66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>45232.8125</v>
-      </c>
-      <c r="B67" s="1">
-        <v>45232.75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>761</v>
-      </c>
-      <c r="D67" t="s">
-        <v>702</v>
-      </c>
-      <c r="E67" s="1">
-        <v>45232.8125</v>
-      </c>
-      <c r="F67" s="1">
-        <v>45232.75</v>
-      </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="B68" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="C68" t="s">
-        <v>762</v>
-      </c>
-      <c r="D68" t="s">
-        <v>790</v>
-      </c>
-      <c r="E68" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="F68" s="1">
-        <v>45272.604166666664</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>45271.8125</v>
-      </c>
-      <c r="B69" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>764</v>
-      </c>
-      <c r="D69" t="s">
-        <v>791</v>
-      </c>
-      <c r="E69" s="1">
-        <v>45271.8125</v>
-      </c>
-      <c r="F69" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="G69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>45242.604166666664</v>
-      </c>
-      <c r="B70" s="1">
-        <v>45242.5625</v>
-      </c>
-      <c r="C70" t="s">
-        <v>767</v>
-      </c>
-      <c r="D70" t="s">
-        <v>728</v>
-      </c>
-      <c r="E70" s="1">
-        <v>45242.604166666664</v>
-      </c>
-      <c r="F70" s="1">
-        <v>45242.5625</v>
-      </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>45270.5</v>
-      </c>
-      <c r="B71" s="1">
-        <v>45270.458333333336</v>
-      </c>
-      <c r="C71" t="s">
-        <v>766</v>
-      </c>
-      <c r="D71" t="s">
-        <v>792</v>
-      </c>
-      <c r="E71" s="1">
-        <v>45270.5</v>
-      </c>
-      <c r="F71" s="1">
-        <v>45270.458333333336</v>
-      </c>
-      <c r="G71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>45281.520833333336</v>
-      </c>
-      <c r="B72" s="1">
-        <v>45281.5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>767</v>
-      </c>
-      <c r="D72" t="s">
-        <v>793</v>
-      </c>
-      <c r="E72" s="1">
-        <v>45281.520833333336</v>
-      </c>
-      <c r="F72" s="1">
-        <v>45281.5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="B73" s="1">
-        <v>45272.354166666664</v>
-      </c>
-      <c r="C73" t="s">
-        <v>769</v>
-      </c>
-      <c r="D73" t="s">
-        <v>794</v>
-      </c>
-      <c r="E73" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="F73" s="1">
-        <v>45272.354166666664</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>45242.75</v>
-      </c>
-      <c r="B74" s="1">
-        <v>45242.604166666664</v>
-      </c>
-      <c r="C74" t="s">
-        <v>771</v>
-      </c>
-      <c r="D74" t="s">
-        <v>795</v>
-      </c>
-      <c r="E74" s="1">
-        <v>45242.75</v>
-      </c>
-      <c r="F74" s="1">
-        <v>45242.604166666664</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="C75" t="s">
-        <v>774</v>
-      </c>
-      <c r="D75" t="s">
-        <v>796</v>
-      </c>
-      <c r="E75" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="F75" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="G75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="B76" s="1">
-        <v>45272.354166666664</v>
-      </c>
-      <c r="C76" t="s">
-        <v>772</v>
-      </c>
-      <c r="D76" t="s">
-        <v>797</v>
-      </c>
-      <c r="E76" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="F76" s="1">
-        <v>45272.354166666664</v>
-      </c>
-      <c r="G76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>45281.4375</v>
-      </c>
-      <c r="B77" s="1">
-        <v>45281.375</v>
-      </c>
-      <c r="C77" t="s">
-        <v>798</v>
-      </c>
-      <c r="D77" t="s">
-        <v>799</v>
-      </c>
-      <c r="E77" s="1">
-        <v>45281.4375</v>
-      </c>
-      <c r="F77" s="1">
-        <v>45281.375</v>
-      </c>
-      <c r="G77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>45282.375</v>
-      </c>
-      <c r="B78" s="1">
-        <v>45282.354166666664</v>
-      </c>
-      <c r="C78" t="s">
-        <v>800</v>
-      </c>
-      <c r="D78" t="s">
-        <v>801</v>
-      </c>
-      <c r="E78" s="1">
-        <v>45282.375</v>
-      </c>
-      <c r="F78" s="1">
-        <v>45282.354166666664</v>
-      </c>
-      <c r="G78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>45282.770833333336</v>
-      </c>
-      <c r="B79" s="1">
-        <v>45282.75</v>
-      </c>
-      <c r="C79" t="s">
-        <v>802</v>
-      </c>
-      <c r="D79" t="s">
-        <v>775</v>
-      </c>
-      <c r="E79" s="1">
-        <v>45282.770833333336</v>
-      </c>
-      <c r="F79" s="1">
-        <v>45282.75</v>
-      </c>
-      <c r="G79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="B80" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="C80" t="s">
-        <v>803</v>
-      </c>
-      <c r="D80" t="s">
-        <v>804</v>
-      </c>
-      <c r="E80" s="1">
-        <v>45271.416666666664</v>
-      </c>
-      <c r="F80" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="B81" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="C81" t="s">
-        <v>805</v>
-      </c>
-      <c r="D81" t="s">
-        <v>806</v>
-      </c>
-      <c r="E81" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="F81" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="B82" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="C82" t="s">
-        <v>803</v>
-      </c>
-      <c r="D82" t="s">
-        <v>807</v>
-      </c>
-      <c r="E82" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="F82" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="B83" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="C83" t="s">
-        <v>808</v>
-      </c>
-      <c r="D83" t="s">
-        <v>809</v>
-      </c>
-      <c r="E83" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="F83" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="G83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>45281.770833333336</v>
-      </c>
-      <c r="B84" s="1">
-        <v>45281.625</v>
-      </c>
-      <c r="C84" t="s">
-        <v>810</v>
-      </c>
-      <c r="D84" t="s">
-        <v>811</v>
-      </c>
-      <c r="E84" s="1">
-        <v>45281.770833333336</v>
-      </c>
-      <c r="F84" s="1">
-        <v>45281.625</v>
-      </c>
-      <c r="G84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="B85" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="C85" t="s">
-        <v>812</v>
-      </c>
-      <c r="D85" t="s">
-        <v>813</v>
-      </c>
-      <c r="E85" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="F85" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="G85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="B86" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>814</v>
-      </c>
-      <c r="D86" t="s">
-        <v>815</v>
-      </c>
-      <c r="E86" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="F86" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="G86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="B87" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="C87" t="s">
-        <v>816</v>
-      </c>
-      <c r="D87" t="s">
-        <v>817</v>
-      </c>
-      <c r="E87" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="F87" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="G87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>45282.520833333336</v>
-      </c>
-      <c r="B88" s="1">
-        <v>45282.479166666664</v>
-      </c>
-      <c r="C88" t="s">
-        <v>818</v>
-      </c>
-      <c r="D88" t="s">
-        <v>819</v>
-      </c>
-      <c r="E88" s="1">
-        <v>45282.520833333336</v>
-      </c>
-      <c r="F88" s="1">
-        <v>45282.479166666664</v>
-      </c>
-      <c r="G88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="B89" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="C89" t="s">
-        <v>820</v>
-      </c>
-      <c r="D89" t="s">
-        <v>821</v>
-      </c>
-      <c r="E89" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="F89" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="G89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>45271.645833333336</v>
-      </c>
-      <c r="B90" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="C90" t="s">
-        <v>822</v>
-      </c>
-      <c r="D90" t="s">
-        <v>823</v>
-      </c>
-      <c r="E90" s="1">
-        <v>45271.645833333336</v>
-      </c>
-      <c r="F90" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="G90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="B91" s="1">
-        <v>45272.5625</v>
-      </c>
-      <c r="C91" t="s">
-        <v>824</v>
-      </c>
-      <c r="D91" t="s">
-        <v>825</v>
-      </c>
-      <c r="E91" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="F91" s="1">
-        <v>45272.5625</v>
-      </c>
-      <c r="G91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="B92" s="1">
-        <v>45272.708333333336</v>
-      </c>
-      <c r="C92" t="s">
-        <v>824</v>
-      </c>
-      <c r="D92" t="s">
-        <v>826</v>
-      </c>
-      <c r="E92" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="F92" s="1">
-        <v>45272.708333333336</v>
-      </c>
-      <c r="G92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="B93" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="C93" t="s">
-        <v>827</v>
-      </c>
-      <c r="D93" t="s">
-        <v>828</v>
-      </c>
-      <c r="E93" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="F93" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="G93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="B94" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="C94" t="s">
-        <v>829</v>
-      </c>
-      <c r="D94" t="s">
-        <v>830</v>
-      </c>
-      <c r="E94" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="F94" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="G94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="B95" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="C95" t="s">
-        <v>831</v>
-      </c>
-      <c r="D95" t="s">
-        <v>832</v>
-      </c>
-      <c r="E95" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="F95" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="G95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>45272.708333333336</v>
-      </c>
-      <c r="B96" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="C96" t="s">
-        <v>833</v>
-      </c>
-      <c r="D96" t="s">
-        <v>834</v>
-      </c>
-      <c r="E96" s="1">
-        <v>45272.708333333336</v>
-      </c>
-      <c r="F96" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="G96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>45282.583333333336</v>
-      </c>
-      <c r="B97" s="1">
-        <v>45282.5625</v>
-      </c>
-      <c r="C97" t="s">
-        <v>835</v>
-      </c>
-      <c r="D97" t="s">
-        <v>836</v>
-      </c>
-      <c r="E97" s="1">
-        <v>45282.583333333336</v>
-      </c>
-      <c r="F97" s="1">
-        <v>45282.5625</v>
-      </c>
-      <c r="G97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="B98" s="1">
-        <v>45271.583333333336</v>
-      </c>
-      <c r="C98" t="s">
-        <v>837</v>
-      </c>
-      <c r="D98" t="s">
-        <v>838</v>
-      </c>
-      <c r="E98" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="F98" s="1">
-        <v>45271.583333333336</v>
-      </c>
-      <c r="G98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>45271.583333333336</v>
-      </c>
-      <c r="B99" s="1">
-        <v>45271.520833333336</v>
-      </c>
-      <c r="C99" t="s">
-        <v>839</v>
-      </c>
-      <c r="D99" t="s">
-        <v>840</v>
-      </c>
-      <c r="E99" s="1">
-        <v>45271.583333333336</v>
-      </c>
-      <c r="F99" s="1">
-        <v>45271.520833333336</v>
-      </c>
-      <c r="G99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>45270.541666666664</v>
-      </c>
-      <c r="B100" s="1">
-        <v>45270.520833333336</v>
-      </c>
-      <c r="C100" t="s">
-        <v>841</v>
-      </c>
-      <c r="D100" t="s">
-        <v>842</v>
-      </c>
-      <c r="E100" s="1">
-        <v>45270.541666666664</v>
-      </c>
-      <c r="F100" s="1">
-        <v>45270.520833333336</v>
-      </c>
-      <c r="G100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>45282.75</v>
-      </c>
-      <c r="B101" s="1">
-        <v>45282.645833333336</v>
-      </c>
-      <c r="C101" t="s">
-        <v>843</v>
-      </c>
-      <c r="D101" t="s">
-        <v>844</v>
-      </c>
-      <c r="E101" s="1">
-        <v>45282.75</v>
-      </c>
-      <c r="F101" s="1">
-        <v>45282.645833333336</v>
-      </c>
-      <c r="G101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>45271.541666666664</v>
-      </c>
-      <c r="B102" s="1">
-        <v>45271.5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>841</v>
-      </c>
-      <c r="D102" t="s">
-        <v>845</v>
-      </c>
-      <c r="E102" s="1">
-        <v>45271.541666666664</v>
-      </c>
-      <c r="F102" s="1">
-        <v>45271.5</v>
-      </c>
-      <c r="G102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>45272.708333333336</v>
-      </c>
-      <c r="B103" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="C103" t="s">
-        <v>846</v>
-      </c>
-      <c r="D103" t="s">
-        <v>847</v>
-      </c>
-      <c r="E103" s="1">
-        <v>45272.708333333336</v>
-      </c>
-      <c r="F103" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="G103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="B104" s="1">
-        <v>45271.770833333336</v>
-      </c>
-      <c r="C104" t="s">
-        <v>848</v>
-      </c>
-      <c r="D104" t="s">
-        <v>849</v>
-      </c>
-      <c r="E104" s="1">
-        <v>45271.75</v>
-      </c>
-      <c r="F104" s="1">
-        <v>45271.770833333336</v>
-      </c>
-      <c r="G104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="B105" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="C105" t="s">
-        <v>850</v>
-      </c>
-      <c r="D105" t="s">
-        <v>851</v>
-      </c>
-      <c r="E105" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="F105" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="C106" t="s">
-        <v>852</v>
-      </c>
-      <c r="D106" t="s">
-        <v>853</v>
-      </c>
-      <c r="E106" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="F106" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="G106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="B107" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="C107" t="s">
-        <v>848</v>
-      </c>
-      <c r="D107" t="s">
-        <v>854</v>
-      </c>
-      <c r="E107" s="1">
-        <v>45272.791666666664</v>
-      </c>
-      <c r="F107" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="G107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>45272.541666666664</v>
-      </c>
-      <c r="B108" s="1">
-        <v>45272.5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>850</v>
-      </c>
-      <c r="D108" t="s">
-        <v>825</v>
-      </c>
-      <c r="E108" s="1">
-        <v>45272.541666666664</v>
-      </c>
-      <c r="F108" s="1">
-        <v>45272.5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="B109" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="C109" t="s">
-        <v>852</v>
-      </c>
-      <c r="D109" t="s">
-        <v>855</v>
-      </c>
-      <c r="E109" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="F109" s="1">
-        <v>45272.729166666664</v>
-      </c>
-      <c r="G109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="B110" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="C110" t="s">
-        <v>848</v>
-      </c>
-      <c r="D110" t="s">
-        <v>856</v>
-      </c>
-      <c r="E110" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="F110" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="G110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>45209.458333333336</v>
-      </c>
-      <c r="B111" s="1">
-        <v>45209.416666666664</v>
-      </c>
-      <c r="C111" t="s">
-        <v>857</v>
-      </c>
-      <c r="D111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="1">
-        <v>45209.458333333336</v>
-      </c>
-      <c r="F111" s="1">
-        <v>45209.416666666664</v>
-      </c>
-      <c r="G111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="B112" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="C112" t="s">
-        <v>814</v>
-      </c>
-      <c r="D112" t="s">
-        <v>858</v>
-      </c>
-      <c r="E112" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="F112" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="G112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>45270.541666666664</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45270.520833333336</v>
-      </c>
-      <c r="C113" t="s">
-        <v>850</v>
-      </c>
-      <c r="D113" t="s">
-        <v>859</v>
-      </c>
-      <c r="E113" s="1">
-        <v>45270.541666666664</v>
-      </c>
-      <c r="F113" s="1">
-        <v>45271.520833333336</v>
-      </c>
-      <c r="G113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="B114" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="C114" t="s">
-        <v>848</v>
-      </c>
-      <c r="D114" t="s">
-        <v>860</v>
-      </c>
-      <c r="E114" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="F114" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="G114" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="B115" s="1">
-        <v>45271.333333333336</v>
-      </c>
-      <c r="C115" t="s">
-        <v>861</v>
-      </c>
-      <c r="D115" t="s">
-        <v>862</v>
-      </c>
-      <c r="E115" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="F115" s="1">
-        <v>45271.333333333336</v>
-      </c>
-      <c r="G115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>45270.729166666664</v>
-      </c>
-      <c r="B116" s="1">
-        <v>45270.708333333336</v>
-      </c>
-      <c r="C116" t="s">
-        <v>863</v>
-      </c>
-      <c r="D116" t="s">
-        <v>864</v>
-      </c>
-      <c r="E116" s="1">
-        <v>45270.729166666664</v>
-      </c>
-      <c r="F116" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="G116" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="B117" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="C117" t="s">
-        <v>865</v>
-      </c>
-      <c r="D117" t="s">
-        <v>866</v>
-      </c>
-      <c r="E117" s="1">
-        <v>45272.645833333336</v>
-      </c>
-      <c r="F117" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="B118" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="C118" t="s">
-        <v>867</v>
-      </c>
-      <c r="D118" t="s">
-        <v>868</v>
-      </c>
-      <c r="E118" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="F118" s="1">
-        <v>45271.354166666664</v>
-      </c>
-      <c r="G118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>45272.541666666664</v>
-      </c>
-      <c r="B119" s="1">
-        <v>45272.482638888891</v>
-      </c>
-      <c r="C119" t="s">
-        <v>820</v>
-      </c>
-      <c r="D119" t="s">
-        <v>869</v>
-      </c>
-      <c r="E119" s="1">
-        <v>45272.541666666664</v>
-      </c>
-      <c r="F119" s="1">
-        <v>45272.482638888891</v>
-      </c>
-      <c r="G119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>45270.395833333336</v>
-      </c>
-      <c r="B120" s="1">
-        <v>45270.354166666664</v>
-      </c>
-      <c r="C120" t="s">
-        <v>822</v>
-      </c>
-      <c r="D120" t="s">
-        <v>870</v>
-      </c>
-      <c r="E120" s="1">
-        <v>45270.395833333336</v>
-      </c>
-      <c r="F120" s="1">
-        <v>45270.354166666664</v>
-      </c>
-      <c r="G120" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>45230.395833333336</v>
-      </c>
-      <c r="B121" s="1">
-        <v>45230.354166666664</v>
-      </c>
-      <c r="C121" t="s">
-        <v>831</v>
-      </c>
-      <c r="D121" t="s">
-        <v>49</v>
-      </c>
-      <c r="E121" s="1">
-        <v>45230.395833333336</v>
-      </c>
-      <c r="F121" s="1">
-        <v>45230.354166666664</v>
-      </c>
-      <c r="G121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>45270.541666666664</v>
-      </c>
-      <c r="B122" s="1">
-        <v>45270.520833333336</v>
-      </c>
-      <c r="C122" t="s">
-        <v>818</v>
-      </c>
-      <c r="D122" t="s">
-        <v>871</v>
-      </c>
-      <c r="E122" s="1">
-        <v>45270.541666666664</v>
-      </c>
-      <c r="F122" s="1">
-        <v>45271.520833333336</v>
-      </c>
-      <c r="G122" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="B123" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="C123" t="s">
-        <v>824</v>
-      </c>
-      <c r="D123" t="s">
-        <v>872</v>
-      </c>
-      <c r="E123" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="F123" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="G123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>45271.791666666664</v>
-      </c>
-      <c r="B124" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="C124" t="s">
-        <v>824</v>
-      </c>
-      <c r="D124" t="s">
-        <v>873</v>
-      </c>
-      <c r="E124" s="1">
-        <v>45271.791666666664</v>
-      </c>
-      <c r="F124" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="G124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>45270.4375</v>
-      </c>
-      <c r="B125" s="1">
-        <v>45270.395833333336</v>
-      </c>
-      <c r="C125" t="s">
-        <v>827</v>
-      </c>
-      <c r="D125" t="s">
-        <v>874</v>
-      </c>
-      <c r="E125" s="1">
-        <v>45270.4375</v>
-      </c>
-      <c r="F125" s="1">
-        <v>45270.395833333336</v>
-      </c>
-      <c r="G125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>45271.791666666664</v>
-      </c>
-      <c r="B126" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="C126" t="s">
-        <v>829</v>
-      </c>
-      <c r="D126" t="s">
-        <v>875</v>
-      </c>
-      <c r="E126" s="1">
-        <v>45271.791666666664</v>
-      </c>
-      <c r="F126" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="G126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="B127" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="C127" t="s">
-        <v>833</v>
-      </c>
-      <c r="D127" t="s">
-        <v>876</v>
-      </c>
-      <c r="E127" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="F127" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="G127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="B128" s="1">
-        <v>45271.333333333336</v>
-      </c>
-      <c r="C128" t="s">
-        <v>846</v>
-      </c>
-      <c r="D128" t="s">
-        <v>877</v>
-      </c>
-      <c r="E128" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="F128" s="1">
-        <v>45271.333333333336</v>
-      </c>
-      <c r="G128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="B129" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="C129" t="s">
-        <v>843</v>
-      </c>
-      <c r="D129" t="s">
-        <v>878</v>
-      </c>
-      <c r="E129" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="F129" s="1">
-        <v>45272.75</v>
-      </c>
-      <c r="G129" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="B130" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="C130" t="s">
-        <v>850</v>
-      </c>
-      <c r="D130" t="s">
-        <v>879</v>
-      </c>
-      <c r="E130" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="F130" s="1">
-        <v>45271.395833333336</v>
-      </c>
-      <c r="G130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>45271.479166666664</v>
-      </c>
-      <c r="B131" s="1">
-        <v>45271.458333333336</v>
-      </c>
-      <c r="C131" t="s">
-        <v>841</v>
-      </c>
-      <c r="D131" t="s">
-        <v>880</v>
-      </c>
-      <c r="E131" s="1">
-        <v>45271.479166666664</v>
-      </c>
-      <c r="F131" s="1">
-        <v>45271.458333333336</v>
-      </c>
-      <c r="G131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>45230.458333333336</v>
-      </c>
-      <c r="B132" s="1">
-        <v>45230.395833333336</v>
-      </c>
-      <c r="C132" t="s">
-        <v>848</v>
-      </c>
-      <c r="D132" t="s">
-        <v>50</v>
-      </c>
-      <c r="E132" s="1">
-        <v>45230.458333333336</v>
-      </c>
-      <c r="F132" s="1">
-        <v>45230.395833333336</v>
-      </c>
-      <c r="G132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>45272.5</v>
-      </c>
-      <c r="B133" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="C133" t="s">
-        <v>837</v>
-      </c>
-      <c r="D133" t="s">
-        <v>860</v>
-      </c>
-      <c r="E133" s="1">
-        <v>45272.5</v>
-      </c>
-      <c r="F133" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="G133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="B134" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="C134" t="s">
-        <v>881</v>
-      </c>
-      <c r="D134" t="s">
-        <v>882</v>
-      </c>
-      <c r="E134" s="1">
-        <v>45272.479166666664</v>
-      </c>
-      <c r="F134" s="1">
-        <v>45272.416666666664</v>
-      </c>
-      <c r="G134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="B135" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="C135" t="s">
-        <v>839</v>
-      </c>
-      <c r="D135" t="s">
-        <v>825</v>
-      </c>
-      <c r="E135" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="F135" s="1">
-        <v>45272.375</v>
-      </c>
-      <c r="G135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>45229.375</v>
-      </c>
-      <c r="B136" s="1">
-        <v>45229.333333333336</v>
-      </c>
-      <c r="C136" t="s">
-        <v>883</v>
-      </c>
-      <c r="D136" t="s">
-        <v>51</v>
-      </c>
-      <c r="E136" s="1">
-        <v>45229.375</v>
-      </c>
-      <c r="F136" s="1">
-        <v>45229.333333333336</v>
-      </c>
-      <c r="G136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>45270.395833333336</v>
-      </c>
-      <c r="B137" s="1">
-        <v>45270.375</v>
-      </c>
-      <c r="C137" t="s">
-        <v>841</v>
-      </c>
-      <c r="D137" t="s">
-        <v>884</v>
-      </c>
-      <c r="E137" s="1">
-        <v>45270.395833333336</v>
-      </c>
-      <c r="F137" s="1">
-        <v>45270.375</v>
-      </c>
-      <c r="G137" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="B138" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="C138" t="s">
-        <v>835</v>
-      </c>
-      <c r="D138" t="s">
-        <v>885</v>
-      </c>
-      <c r="E138" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="F138" s="1">
-        <v>45272.395833333336</v>
-      </c>
-      <c r="G138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="B139" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="C139" t="s">
-        <v>883</v>
-      </c>
-      <c r="D139" t="s">
-        <v>886</v>
-      </c>
-      <c r="E139" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="F139" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="G139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>45270.479166666664</v>
-      </c>
-      <c r="B140" s="1">
-        <v>45270.4375</v>
-      </c>
-      <c r="C140" t="s">
-        <v>848</v>
-      </c>
-      <c r="D140" t="s">
-        <v>887</v>
-      </c>
-      <c r="E140" s="1">
-        <v>45270.479166666664</v>
-      </c>
-      <c r="F140" s="1">
-        <v>45270.4375</v>
-      </c>
-      <c r="G140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="B141" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="C141" t="s">
-        <v>850</v>
-      </c>
-      <c r="D141" t="s">
-        <v>888</v>
-      </c>
-      <c r="E141" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="F141" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="G141" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="B142" s="1">
-        <v>45271.770833333336</v>
-      </c>
-      <c r="C142" t="s">
-        <v>852</v>
-      </c>
-      <c r="D142" t="s">
-        <v>889</v>
-      </c>
-      <c r="E142" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="F142" s="1">
-        <v>45271.770833333336</v>
-      </c>
-      <c r="G142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>45270.75</v>
-      </c>
-      <c r="B143" s="1">
-        <v>45270.729166666664</v>
-      </c>
-      <c r="C143" t="s">
-        <v>890</v>
-      </c>
-      <c r="D143" t="s">
-        <v>891</v>
-      </c>
-      <c r="E143" s="1">
-        <v>45270.75</v>
-      </c>
-      <c r="F143" s="1">
-        <v>45270.729166666664</v>
-      </c>
-      <c r="G143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="B144" s="1">
-        <v>45271.645833333336</v>
-      </c>
-      <c r="C144" t="s">
-        <v>863</v>
-      </c>
-      <c r="D144" t="s">
-        <v>892</v>
-      </c>
-      <c r="E144" s="1">
-        <v>45271.708333333336</v>
-      </c>
-      <c r="F144" s="1">
-        <v>45271.645833333336</v>
-      </c>
-      <c r="G144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>45229.479166666664</v>
-      </c>
-      <c r="B145" s="1">
-        <v>45229.416666666664</v>
-      </c>
-      <c r="C145" t="s">
-        <v>865</v>
-      </c>
-      <c r="D145" t="s">
-        <v>52</v>
-      </c>
-      <c r="E145" s="1">
-        <v>45229.479166666664</v>
-      </c>
-      <c r="F145" s="1">
-        <v>45229.416666666664</v>
-      </c>
-      <c r="G145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>45272.354166666664</v>
-      </c>
-      <c r="B146" s="1">
-        <v>45272.333333333336</v>
-      </c>
-      <c r="C146" t="s">
-        <v>861</v>
-      </c>
-      <c r="D146" t="s">
-        <v>893</v>
-      </c>
-      <c r="E146" s="1">
-        <v>45272.354166666664</v>
-      </c>
-      <c r="F146" s="1">
-        <v>45272.333333333336</v>
-      </c>
-      <c r="G146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>45261.770833333336</v>
-      </c>
-      <c r="B147" s="1">
-        <v>45261.645833333336</v>
-      </c>
-      <c r="C147" t="s">
-        <v>867</v>
-      </c>
-      <c r="D147" t="s">
-        <v>894</v>
-      </c>
-      <c r="E147" s="1">
-        <v>45261.770833333336</v>
-      </c>
-      <c r="F147" s="1">
-        <v>45261.645833333336</v>
-      </c>
-      <c r="G147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="B148" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="C148" t="s">
-        <v>814</v>
-      </c>
-      <c r="D148" t="s">
-        <v>895</v>
-      </c>
-      <c r="E148" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="F148" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="G148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>45230.416666666664</v>
-      </c>
-      <c r="B149" s="1">
-        <v>45230.375</v>
-      </c>
-      <c r="C149" t="s">
-        <v>820</v>
-      </c>
-      <c r="D149" t="s">
-        <v>53</v>
-      </c>
-      <c r="E149" s="1">
-        <v>45230.416666666664</v>
-      </c>
-      <c r="F149" s="1">
-        <v>45230.375</v>
-      </c>
-      <c r="G149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>45229.5</v>
-      </c>
-      <c r="B150" s="1">
-        <v>45229.4375</v>
-      </c>
-      <c r="C150" t="s">
-        <v>818</v>
-      </c>
-      <c r="D150" t="s">
-        <v>54</v>
-      </c>
-      <c r="E150" s="1">
-        <v>45229.5</v>
-      </c>
-      <c r="F150" s="1">
-        <v>45229.4375</v>
-      </c>
-      <c r="G150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="B151" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="C151" t="s">
-        <v>822</v>
-      </c>
-      <c r="D151" t="s">
-        <v>896</v>
-      </c>
-      <c r="E151" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="F151" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="G151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>45211.479166666664</v>
-      </c>
-      <c r="B152" s="1">
-        <v>45211.458333333336</v>
-      </c>
-      <c r="C152" t="s">
-        <v>827</v>
-      </c>
-      <c r="D152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E152" s="1">
-        <v>45211.479166666664</v>
-      </c>
-      <c r="F152" s="1">
-        <v>45211.458333333336</v>
-      </c>
-      <c r="G152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>45211.375</v>
-      </c>
-      <c r="B153" s="1">
-        <v>45211.354166666664</v>
-      </c>
-      <c r="C153" t="s">
-        <v>824</v>
-      </c>
-      <c r="D153" t="s">
-        <v>56</v>
-      </c>
-      <c r="E153" s="1">
-        <v>45211.375</v>
-      </c>
-      <c r="F153" s="1">
-        <v>45211.354166666664</v>
-      </c>
-      <c r="G153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>45271.458333333336</v>
-      </c>
-      <c r="B154" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="C154" t="s">
-        <v>824</v>
-      </c>
-      <c r="D154" t="s">
-        <v>897</v>
-      </c>
-      <c r="E154" s="1">
-        <v>45271.458333333336</v>
-      </c>
-      <c r="F154" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="G154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>45272.5625</v>
-      </c>
-      <c r="B155" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="C155" t="s">
-        <v>829</v>
-      </c>
-      <c r="D155" t="s">
-        <v>869</v>
-      </c>
-      <c r="E155" s="1">
-        <v>45272.5625</v>
-      </c>
-      <c r="F155" s="1">
-        <v>45272.520833333336</v>
-      </c>
-      <c r="G155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>45229.583333333336</v>
-      </c>
-      <c r="B156" s="1">
-        <v>45229.520833333336</v>
-      </c>
-      <c r="C156" t="s">
-        <v>831</v>
-      </c>
-      <c r="D156" t="s">
-        <v>57</v>
-      </c>
-      <c r="E156" s="1">
-        <v>45229.583333333336</v>
-      </c>
-      <c r="F156" s="1">
-        <v>45229.520833333336</v>
-      </c>
-      <c r="G156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>45220.708333333336</v>
-      </c>
-      <c r="B157" s="1">
-        <v>45220.645833333336</v>
-      </c>
-      <c r="C157" t="s">
-        <v>833</v>
-      </c>
-      <c r="D157" t="s">
-        <v>58</v>
-      </c>
-      <c r="E157" s="1">
-        <v>45220.708333333336</v>
-      </c>
-      <c r="F157" s="1">
-        <v>45220.645833333336</v>
-      </c>
-      <c r="G157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="B158" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="C158" t="s">
-        <v>843</v>
-      </c>
-      <c r="D158" t="s">
-        <v>898</v>
-      </c>
-      <c r="E158" s="1">
-        <v>45272.458333333336</v>
-      </c>
-      <c r="F158" s="1">
-        <v>45272.4375</v>
-      </c>
-      <c r="G158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="B159" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="C159" t="s">
-        <v>839</v>
-      </c>
-      <c r="D159" t="s">
-        <v>59</v>
-      </c>
-      <c r="E159" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="F159" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="G159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>45220.708333333336</v>
-      </c>
-      <c r="B160" s="1">
-        <v>45220.645833333336</v>
-      </c>
-      <c r="C160" t="s">
-        <v>835</v>
-      </c>
-      <c r="D160" t="s">
-        <v>60</v>
-      </c>
-      <c r="E160" s="1">
-        <v>45220.708333333336</v>
-      </c>
-      <c r="F160" s="1">
-        <v>45220.645833333336</v>
-      </c>
-      <c r="G160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>45229.75</v>
-      </c>
-      <c r="B161" s="1">
-        <v>45229.729166666664</v>
-      </c>
-      <c r="C161" t="s">
-        <v>837</v>
-      </c>
-      <c r="D161" t="s">
-        <v>61</v>
-      </c>
-      <c r="E161" s="1">
-        <v>45229.75</v>
-      </c>
-      <c r="F161" s="1">
-        <v>45229.729166666664</v>
-      </c>
-      <c r="G161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="B162" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="C162" t="s">
-        <v>841</v>
-      </c>
-      <c r="D162" t="s">
-        <v>876</v>
-      </c>
-      <c r="E162" s="1">
-        <v>45272.770833333336</v>
-      </c>
-      <c r="F162" s="1">
-        <v>45272.625</v>
-      </c>
-      <c r="G162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>45211.75</v>
-      </c>
-      <c r="B163" s="1">
-        <v>45211.604166666664</v>
-      </c>
-      <c r="C163" t="s">
-        <v>841</v>
-      </c>
-      <c r="D163" t="s">
-        <v>62</v>
-      </c>
-      <c r="E163" s="1">
-        <v>45211.75</v>
-      </c>
-      <c r="F163" s="1">
-        <v>45211.604166666664</v>
-      </c>
-      <c r="G163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>45220.4375</v>
-      </c>
-      <c r="B164" s="1">
-        <v>45220.395833333336</v>
-      </c>
-      <c r="C164" t="s">
-        <v>848</v>
-      </c>
-      <c r="D164" t="s">
-        <v>63</v>
-      </c>
-      <c r="E164" s="1">
-        <v>45220.4375</v>
-      </c>
-      <c r="F164" s="1">
-        <v>45220.395833333336</v>
-      </c>
-      <c r="G164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>45220.583333333336</v>
-      </c>
-      <c r="B165" s="1">
-        <v>45220.5625</v>
-      </c>
-      <c r="C165" t="s">
-        <v>846</v>
-      </c>
-      <c r="D165" t="s">
-        <v>64</v>
-      </c>
-      <c r="E165" s="1">
-        <v>45220.583333333336</v>
-      </c>
-      <c r="F165" s="1">
-        <v>45220.5625</v>
-      </c>
-      <c r="G165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="B166" s="1">
-        <v>45211.458333333336</v>
-      </c>
-      <c r="C166" t="s">
-        <v>852</v>
-      </c>
-      <c r="D166" t="s">
-        <v>65</v>
-      </c>
-      <c r="E166" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="F166" s="1">
-        <v>45211.458333333336</v>
-      </c>
-      <c r="G166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>45211.583333333336</v>
-      </c>
-      <c r="B167" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="C167" t="s">
-        <v>820</v>
-      </c>
-      <c r="D167" t="s">
-        <v>66</v>
-      </c>
-      <c r="E167" s="1">
-        <v>45211.583333333336</v>
-      </c>
-      <c r="F167" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="G167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>45220.416666666664</v>
-      </c>
-      <c r="B168" s="1">
-        <v>45220.354166666664</v>
-      </c>
-      <c r="C168" t="s">
-        <v>850</v>
-      </c>
-      <c r="D168" t="s">
-        <v>67</v>
-      </c>
-      <c r="E168" s="1">
-        <v>45220.416666666664</v>
-      </c>
-      <c r="F168" s="1">
-        <v>45220.354166666664</v>
-      </c>
-      <c r="G168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>45220.729166666664</v>
-      </c>
-      <c r="B169" s="1">
-        <v>45220.708333333336</v>
-      </c>
-      <c r="C169" t="s">
-        <v>814</v>
-      </c>
-      <c r="D169" t="s">
-        <v>68</v>
-      </c>
-      <c r="E169" s="1">
-        <v>45220.729166666664</v>
-      </c>
-      <c r="F169" s="1">
-        <v>45220.708333333336</v>
-      </c>
-      <c r="G169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>45211.75</v>
-      </c>
-      <c r="B170" s="1">
-        <v>45211.708333333336</v>
-      </c>
-      <c r="C170" t="s">
-        <v>822</v>
-      </c>
-      <c r="D170" t="s">
-        <v>69</v>
-      </c>
-      <c r="E170" s="1">
-        <v>45211.75</v>
-      </c>
-      <c r="F170" s="1">
-        <v>45211.708333333336</v>
-      </c>
-      <c r="G170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>45220.375</v>
-      </c>
-      <c r="B171" s="1">
-        <v>45220.354166666664</v>
-      </c>
-      <c r="C171" t="s">
-        <v>824</v>
-      </c>
-      <c r="D171" t="s">
-        <v>70</v>
-      </c>
-      <c r="E171" s="1">
-        <v>45220.375</v>
-      </c>
-      <c r="F171" s="1">
-        <v>45220.354166666664</v>
-      </c>
-      <c r="G171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>45220.791666666664</v>
-      </c>
-      <c r="B172" s="1">
-        <v>45220.75</v>
-      </c>
-      <c r="C172" t="s">
-        <v>818</v>
-      </c>
-      <c r="D172" t="s">
-        <v>71</v>
-      </c>
-      <c r="E172" s="1">
-        <v>45220.791666666664</v>
-      </c>
-      <c r="F172" s="1">
-        <v>45220.75</v>
-      </c>
-      <c r="G172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>45220.770833333336</v>
-      </c>
-      <c r="B173" s="1">
-        <v>45220.645833333336</v>
-      </c>
-      <c r="C173" t="s">
-        <v>824</v>
-      </c>
-      <c r="D173" t="s">
-        <v>72</v>
-      </c>
-      <c r="E173" s="1">
-        <v>45220.770833333336</v>
-      </c>
-      <c r="F173" s="1">
-        <v>45220.645833333336</v>
-      </c>
-      <c r="G173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>45220.5</v>
-      </c>
-      <c r="B174" s="1">
-        <v>45220.458333333336</v>
-      </c>
-      <c r="C174" t="s">
-        <v>827</v>
-      </c>
-      <c r="D174" t="s">
-        <v>73</v>
-      </c>
-      <c r="E174" s="1">
-        <v>45220.5</v>
-      </c>
-      <c r="F174" s="1">
-        <v>45220.458333333336</v>
-      </c>
-      <c r="G174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="B175" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="C175" t="s">
-        <v>831</v>
-      </c>
-      <c r="D175" t="s">
-        <v>344</v>
-      </c>
-      <c r="E175" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="F175" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="G175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="B176" s="1">
-        <v>45211.479166666664</v>
-      </c>
-      <c r="C176" t="s">
-        <v>829</v>
-      </c>
-      <c r="D176" t="s">
-        <v>345</v>
-      </c>
-      <c r="E176" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="F176" s="1">
-        <v>45211.479166666664</v>
-      </c>
-      <c r="G176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>45220.541666666664</v>
-      </c>
-      <c r="B177" s="1">
-        <v>45220.5</v>
-      </c>
-      <c r="C177" t="s">
-        <v>833</v>
-      </c>
-      <c r="D177" t="s">
-        <v>74</v>
-      </c>
-      <c r="E177" s="1">
-        <v>45220.541666666664</v>
-      </c>
-      <c r="F177" s="1">
-        <v>45220.5</v>
-      </c>
-      <c r="G177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>45211.729166666664</v>
-      </c>
-      <c r="B178" s="1">
-        <v>45211.708333333336</v>
-      </c>
-      <c r="C178" t="s">
-        <v>899</v>
-      </c>
-      <c r="D178" t="s">
-        <v>75</v>
-      </c>
-      <c r="E178" s="1">
-        <v>45211.729166666664</v>
-      </c>
-      <c r="F178" s="1">
-        <v>45211.708333333336</v>
-      </c>
-      <c r="G178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>45221.791666666664</v>
-      </c>
-      <c r="B179" s="1">
-        <v>45221.75</v>
-      </c>
-      <c r="C179" t="s">
-        <v>900</v>
-      </c>
-      <c r="D179" t="s">
-        <v>76</v>
-      </c>
-      <c r="E179" s="1">
-        <v>45221.791666666664</v>
-      </c>
-      <c r="F179" s="1">
-        <v>45221.75</v>
-      </c>
-      <c r="G179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>45220.625</v>
-      </c>
-      <c r="B180" s="1">
-        <v>45220.583333333336</v>
-      </c>
-      <c r="C180" t="s">
-        <v>901</v>
-      </c>
-      <c r="D180" t="s">
-        <v>77</v>
-      </c>
-      <c r="E180" s="1">
-        <v>45219.625</v>
-      </c>
-      <c r="F180" s="1">
-        <v>45219.583333333336</v>
-      </c>
-      <c r="G180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>45220.75</v>
-      </c>
-      <c r="B181" s="1">
-        <v>45220.604166666664</v>
-      </c>
-      <c r="C181" t="s">
-        <v>902</v>
-      </c>
-      <c r="D181" t="s">
-        <v>78</v>
-      </c>
-      <c r="E181" s="1">
-        <v>45220.75</v>
-      </c>
-      <c r="F181" s="1">
-        <v>45220.604166666664</v>
-      </c>
-      <c r="G181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>45220.770833333336</v>
-      </c>
-      <c r="B182" s="1">
-        <v>45220.75</v>
-      </c>
-      <c r="C182" t="s">
-        <v>900</v>
-      </c>
-      <c r="D182" t="s">
-        <v>79</v>
-      </c>
-      <c r="E182" s="1">
-        <v>45220.770833333336</v>
-      </c>
-      <c r="F182" s="1">
-        <v>45220.75</v>
-      </c>
-      <c r="G182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="B183" s="1">
-        <v>45211.75</v>
-      </c>
-      <c r="C183" t="s">
-        <v>903</v>
-      </c>
-      <c r="D183" t="s">
-        <v>351</v>
-      </c>
-      <c r="E183" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="F183" s="1">
-        <v>45211.75</v>
-      </c>
-      <c r="G183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>45220.541666666664</v>
-      </c>
-      <c r="B184" s="1">
-        <v>45220.479166666664</v>
-      </c>
-      <c r="C184" t="s">
-        <v>904</v>
-      </c>
-      <c r="D184" t="s">
-        <v>80</v>
-      </c>
-      <c r="E184" s="1">
-        <v>45220.541666666664</v>
-      </c>
-      <c r="F184" s="1">
-        <v>45220.479166666664</v>
-      </c>
-      <c r="G184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>45220.416666666664</v>
-      </c>
-      <c r="B185" s="1">
-        <v>45220.395833333336</v>
-      </c>
-      <c r="C185" t="s">
-        <v>905</v>
-      </c>
-      <c r="D185" t="s">
-        <v>81</v>
-      </c>
-      <c r="E185" s="1">
-        <v>45220.416666666664</v>
-      </c>
-      <c r="F185" s="1">
-        <v>45220.395833333336</v>
-      </c>
-      <c r="G185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>45210.770833333336</v>
-      </c>
-      <c r="B186" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="C186" t="s">
-        <v>906</v>
-      </c>
-      <c r="D186" t="s">
-        <v>82</v>
-      </c>
-      <c r="E186" s="1">
-        <v>45210.770833333336</v>
-      </c>
-      <c r="F186" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="G186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>45221.416666666664</v>
-      </c>
-      <c r="B187" s="1">
-        <v>45221.395833333336</v>
-      </c>
-      <c r="C187" t="s">
-        <v>907</v>
-      </c>
-      <c r="D187" t="s">
-        <v>76</v>
-      </c>
-      <c r="E187" s="1">
-        <v>45221.416666666664</v>
-      </c>
-      <c r="F187" s="1">
-        <v>45221.395833333336</v>
-      </c>
-      <c r="G187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>45221.520833333336</v>
-      </c>
-      <c r="B188" s="1">
-        <v>45221.479166666664</v>
-      </c>
-      <c r="C188" t="s">
-        <v>908</v>
-      </c>
-      <c r="D188" t="s">
-        <v>83</v>
-      </c>
-      <c r="E188" s="1">
-        <v>45221.520833333336</v>
-      </c>
-      <c r="F188" s="1">
-        <v>45221.479166666664</v>
-      </c>
-      <c r="G188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>45210.770833333336</v>
-      </c>
-      <c r="B189" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="C189" t="s">
-        <v>909</v>
-      </c>
-      <c r="D189" t="s">
-        <v>84</v>
-      </c>
-      <c r="E189" s="1">
-        <v>45210.770833333336</v>
-      </c>
-      <c r="F189" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="G189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>45210.520833333336</v>
-      </c>
-      <c r="B190" s="1">
-        <v>45209.458333333336</v>
-      </c>
-      <c r="C190" t="s">
-        <v>910</v>
-      </c>
-      <c r="D190" t="s">
-        <v>85</v>
-      </c>
-      <c r="E190" s="1">
-        <v>45209.520833333336</v>
-      </c>
-      <c r="F190" s="1">
-        <v>45210.458333333336</v>
-      </c>
-      <c r="G190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>45221.395833333336</v>
-      </c>
-      <c r="B191" s="1">
-        <v>45221.333333333336</v>
-      </c>
-      <c r="C191" t="s">
-        <v>911</v>
-      </c>
-      <c r="D191" t="s">
-        <v>86</v>
-      </c>
-      <c r="E191" s="1">
-        <v>45221.395833333336</v>
-      </c>
-      <c r="F191" s="1">
-        <v>45221.333333333336</v>
-      </c>
-      <c r="G191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>45210.395833333336</v>
-      </c>
-      <c r="B192" s="1">
-        <v>45210.333333333336</v>
-      </c>
-      <c r="C192" t="s">
-        <v>912</v>
-      </c>
-      <c r="D192" t="s">
-        <v>87</v>
-      </c>
-      <c r="E192" s="1">
-        <v>45210.395833333336</v>
-      </c>
-      <c r="F192" s="1">
-        <v>45210.333333333336</v>
-      </c>
-      <c r="G192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>45221.583333333336</v>
-      </c>
-      <c r="B193" s="1">
-        <v>45221.5625</v>
-      </c>
-      <c r="C193" t="s">
-        <v>910</v>
-      </c>
-      <c r="D193" t="s">
-        <v>88</v>
-      </c>
-      <c r="E193" s="1">
-        <v>45221.583333333336</v>
-      </c>
-      <c r="F193" s="1">
-        <v>45221.5625</v>
-      </c>
-      <c r="G193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>45221.4375</v>
-      </c>
-      <c r="B194" s="1">
-        <v>45221.395833333336</v>
-      </c>
-      <c r="C194" t="s">
-        <v>913</v>
-      </c>
-      <c r="D194" t="s">
-        <v>89</v>
-      </c>
-      <c r="E194" s="1">
-        <v>45221.4375</v>
-      </c>
-      <c r="F194" s="1">
-        <v>45221.395833333336</v>
-      </c>
-      <c r="G194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>45210.5</v>
-      </c>
-      <c r="B195" s="1">
-        <v>45210.4375</v>
-      </c>
-      <c r="C195" t="s">
-        <v>914</v>
-      </c>
-      <c r="D195" t="s">
-        <v>90</v>
-      </c>
-      <c r="E195" s="1">
-        <v>45210.5</v>
-      </c>
-      <c r="F195" s="1">
-        <v>45210.4375</v>
-      </c>
-      <c r="G195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>45210.416666666664</v>
-      </c>
-      <c r="B196" s="1">
-        <v>45210.375</v>
-      </c>
-      <c r="C196" t="s">
-        <v>915</v>
-      </c>
-      <c r="D196" t="s">
-        <v>91</v>
-      </c>
-      <c r="E196" s="1">
-        <v>45210.416666666664</v>
-      </c>
-      <c r="F196" s="1">
-        <v>45209.375</v>
-      </c>
-      <c r="G196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="B197" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="C197" t="s">
-        <v>916</v>
-      </c>
-      <c r="D197" t="s">
-        <v>365</v>
-      </c>
-      <c r="E197" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="F197" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="G197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="B198" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="C198" t="s">
-        <v>917</v>
-      </c>
-      <c r="D198" t="s">
-        <v>92</v>
-      </c>
-      <c r="E198" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="F198" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="G198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>45210.729166666664</v>
-      </c>
-      <c r="B199" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="C199" t="s">
-        <v>918</v>
-      </c>
-      <c r="D199" t="s">
-        <v>93</v>
-      </c>
-      <c r="E199" s="1">
-        <v>45210.729166666664</v>
-      </c>
-      <c r="F199" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="G199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>45210.625</v>
-      </c>
-      <c r="B200" s="1">
-        <v>45210.5625</v>
-      </c>
-      <c r="C200" t="s">
-        <v>916</v>
-      </c>
-      <c r="D200" t="s">
-        <v>94</v>
-      </c>
-      <c r="E200" s="1">
-        <v>45210.625</v>
-      </c>
-      <c r="F200" s="1">
-        <v>45210.5625</v>
-      </c>
-      <c r="G200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="B201" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="C201" t="s">
-        <v>919</v>
-      </c>
-      <c r="D201" t="s">
-        <v>95</v>
-      </c>
-      <c r="E201" s="1">
-        <v>45211.520833333336</v>
-      </c>
-      <c r="F201" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="G201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>45210.541666666664</v>
-      </c>
-      <c r="B202" s="1">
-        <v>45210.479166666664</v>
-      </c>
-      <c r="C202" t="s">
-        <v>920</v>
-      </c>
-      <c r="D202" t="s">
-        <v>96</v>
-      </c>
-      <c r="E202" s="1">
-        <v>45210.541666666664</v>
-      </c>
-      <c r="F202" s="1">
-        <v>45210.479166666664</v>
-      </c>
-      <c r="G202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="B203" s="1">
-        <v>45210.625</v>
-      </c>
-      <c r="C203" t="s">
-        <v>921</v>
-      </c>
-      <c r="D203" t="s">
-        <v>97</v>
-      </c>
-      <c r="E203" s="1">
-        <v>45210.75</v>
-      </c>
-      <c r="F203" s="1">
-        <v>45210.625</v>
-      </c>
-      <c r="G203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="B204" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="C204" t="s">
-        <v>922</v>
-      </c>
-      <c r="D204" t="s">
-        <v>98</v>
-      </c>
-      <c r="E204" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="F204" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="G204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>45211.604166666664</v>
-      </c>
-      <c r="B205" s="1">
-        <v>45211.583333333336</v>
-      </c>
-      <c r="C205" t="s">
-        <v>923</v>
-      </c>
-      <c r="D205" t="s">
-        <v>99</v>
-      </c>
-      <c r="E205" s="1">
-        <v>45211.604166666664</v>
-      </c>
-      <c r="F205" s="1">
-        <v>45211.583333333336</v>
-      </c>
-      <c r="G205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="B206" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="C206" t="s">
-        <v>916</v>
-      </c>
-      <c r="D206" t="s">
-        <v>374</v>
-      </c>
-      <c r="E206" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="F206" s="1">
-        <v>45211.5</v>
-      </c>
-      <c r="G206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>45211.729166666664</v>
-      </c>
-      <c r="B207" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="C207" t="s">
-        <v>924</v>
-      </c>
-      <c r="D207" t="s">
-        <v>100</v>
-      </c>
-      <c r="E207" s="1">
-        <v>45211.729166666664</v>
-      </c>
-      <c r="F207" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="G207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>45211.708333333336</v>
-      </c>
-      <c r="B208" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="C208" t="s">
-        <v>925</v>
-      </c>
-      <c r="D208" t="s">
-        <v>377</v>
-      </c>
-      <c r="E208" s="1">
-        <v>45211.708333333336</v>
-      </c>
-      <c r="F208" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="G208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="B209" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="C209" t="s">
-        <v>926</v>
-      </c>
-      <c r="D209" t="s">
-        <v>379</v>
-      </c>
-      <c r="E209" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="F209" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="G209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="B210" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="C210" t="s">
-        <v>927</v>
-      </c>
-      <c r="D210" t="s">
-        <v>381</v>
-      </c>
-      <c r="E210" s="1">
-        <v>45211.770833333336</v>
-      </c>
-      <c r="F210" s="1">
-        <v>45211.645833333336</v>
-      </c>
-      <c r="G210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="B211" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="C211" t="s">
-        <v>927</v>
-      </c>
-      <c r="D211" t="s">
-        <v>101</v>
-      </c>
-      <c r="E211" s="1">
-        <v>45211.5625</v>
-      </c>
-      <c r="F211" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="G211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>45211.583333333336</v>
-      </c>
-      <c r="B212" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="C212" t="s">
-        <v>927</v>
-      </c>
-      <c r="D212" t="s">
-        <v>384</v>
-      </c>
-      <c r="E212" s="1">
-        <v>45211.583333333336</v>
-      </c>
-      <c r="F212" s="1">
-        <v>45211.541666666664</v>
-      </c>
-      <c r="G212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="B213" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="C213" t="s">
-        <v>922</v>
-      </c>
-      <c r="D213" t="s">
-        <v>928</v>
-      </c>
-      <c r="E213" s="1">
-        <v>45271.4375</v>
-      </c>
-      <c r="F213" s="1">
-        <v>45271.375</v>
-      </c>
-      <c r="G213" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>45270.479166666664</v>
-      </c>
-      <c r="B214" s="1">
-        <v>45270.4375</v>
-      </c>
-      <c r="C214" t="s">
-        <v>916</v>
-      </c>
-      <c r="D214" t="s">
-        <v>929</v>
-      </c>
-      <c r="E214" s="1">
-        <v>45270.479166666664</v>
-      </c>
-      <c r="F214" s="1">
-        <v>45270.4375</v>
-      </c>
-      <c r="G214" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="B215" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="C215" t="s">
-        <v>930</v>
-      </c>
-      <c r="D215" t="s">
-        <v>931</v>
-      </c>
-      <c r="E215" s="1">
-        <v>45271.625</v>
-      </c>
-      <c r="F215" s="1">
-        <v>45271.604166666664</v>
-      </c>
-      <c r="G215" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="B216" s="1">
-        <v>45271.770833333336</v>
-      </c>
-      <c r="C216" t="s">
-        <v>924</v>
-      </c>
-      <c r="D216" t="s">
-        <v>932</v>
-      </c>
-      <c r="E216" s="1">
-        <v>45271.729166666664</v>
-      </c>
-      <c r="F216" s="1">
-        <v>45271.770833333336</v>
-      </c>
-      <c r="G216" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23071,19 +18074,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5483d316-eff4-4df8-94df-57ca305d88e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="080571ad-6baa-4371-bca3-51d3a9cff2c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D5961113F9E424480E47BC786FA34A9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59c6fc2b6c1d529488b9b5ffcc7b2792">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="080571ad-6baa-4371-bca3-51d3a9cff2c7" xmlns:ns3="5483d316-eff4-4df8-94df-57ca305d88e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4312ec268b45f7c24994eb65471a348" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -23295,6 +18285,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5483d316-eff4-4df8-94df-57ca305d88e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="080571ad-6baa-4371-bca3-51d3a9cff2c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7FE83F7-F300-4896-8A06-0F60D593375C}">
   <ds:schemaRefs>
@@ -23304,16 +18307,41 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40041C25-CDB9-4093-8942-C2FF0D840D35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="080571ad-6baa-4371-bca3-51d3a9cff2c7"/>
+    <ds:schemaRef ds:uri="5483d316-eff4-4df8-94df-57ca305d88e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B11F862-09D3-4216-BDBC-F432333AB91D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="0fc8fdbe-63ee-4f69-b313-2b5d739d1621"/>
+    <ds:schemaRef ds:uri="5483d316-eff4-4df8-94df-57ca305d88e3"/>
+    <ds:schemaRef ds:uri="080571ad-6baa-4371-bca3-51d3a9cff2c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40041C25-CDB9-4093-8942-C2FF0D840D35}"/>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>